--- a/data/clustered_fiber_composition.xlsx
+++ b/data/clustered_fiber_composition.xlsx
@@ -94,40 +94,40 @@
     <t>Polypropylene</t>
   </si>
   <si>
-    <t xml:space="preserve">T-shirts, singlets and vests, hoodies and crewnecks </t>
-  </si>
-  <si>
-    <t>Overcoats and Anoraks</t>
-  </si>
-  <si>
-    <t>Underwear, socks, night clothes</t>
-  </si>
-  <si>
-    <t>Handkerchiefs, ties, scarves, gloves and other</t>
-  </si>
-  <si>
-    <t>Shirts, Blouses, Tops</t>
-  </si>
-  <si>
-    <t>Sportswear and swimwear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trousers and Shorts </t>
-  </si>
-  <si>
-    <t>Trousers and shorts</t>
-  </si>
-  <si>
-    <t>Dresses and skirts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweaters and Cardigans </t>
-  </si>
-  <si>
-    <t>Sweaters and cardigans</t>
-  </si>
-  <si>
-    <t>Suits and blazers</t>
+    <t xml:space="preserve">t-shirts, singlets and vests, hoodies and crewnecks </t>
+  </si>
+  <si>
+    <t>overcoats and anoraks</t>
+  </si>
+  <si>
+    <t>underwear, socks, night clothes</t>
+  </si>
+  <si>
+    <t>handkerchiefs, ties, scarves, gloves and other</t>
+  </si>
+  <si>
+    <t>shirts, blouses, tops</t>
+  </si>
+  <si>
+    <t>sportswear and swimwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trousers and shorts </t>
+  </si>
+  <si>
+    <t>trousers and shorts</t>
+  </si>
+  <si>
+    <t>dresses and skirts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sweaters and cardigans </t>
+  </si>
+  <si>
+    <t>sweaters and cardigans</t>
+  </si>
+  <si>
+    <t>suits and blazers</t>
   </si>
 </sst>
 </file>
@@ -1367,98 +1367,98 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>98.57999044276096</v>
+        <v>98.84362978171896</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>101</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.195961180276472</v>
+      </c>
+      <c r="H18">
+        <v>1.08812861484168</v>
+      </c>
+      <c r="I18">
+        <v>1.568284119041519</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
       <c r="L18">
-        <v>85.10148799957355</v>
+        <v>8.361745004339143</v>
       </c>
       <c r="M18">
-        <v>4.665127825275781</v>
+        <v>3.498122665881724</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>83.13138819733842</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>4.508057771669942</v>
-      </c>
-      <c r="X18">
-        <v>4.305316846241698</v>
-      </c>
-      <c r="Y18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>98.84362978171896</v>
+        <v>98.57999044276096</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>101</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
-        <v>1.195961180276472</v>
-      </c>
-      <c r="H19">
-        <v>1.08812861484168</v>
-      </c>
-      <c r="I19">
-        <v>1.568284119041519</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
-        <v>8.361745004339143</v>
+        <v>85.10148799957355</v>
       </c>
       <c r="M19">
-        <v>3.498122665881724</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
+        <v>4.665127825275781</v>
       </c>
       <c r="P19">
-        <v>83.13138819733842</v>
+        <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>4.508057771669942</v>
+      </c>
+      <c r="X19">
+        <v>4.305316846241698</v>
+      </c>
+      <c r="Y19">
         <v>0</v>
       </c>
     </row>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>98.73128165941556</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2251,51 +2251,51 @@
         <v>35</v>
       </c>
       <c r="F37">
-        <v>1.226415094339622</v>
+        <v>2.543171114599685</v>
       </c>
       <c r="G37">
+        <v>2.7157001414427</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1.004243281471003</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>4.407417193838689</v>
+        <v>5.532570737227815</v>
       </c>
       <c r="M37">
-        <v>13.90142704639083</v>
+        <v>3.283582089552244</v>
+      </c>
+      <c r="N37">
+        <v>1.428571428571429</v>
       </c>
       <c r="P37">
-        <v>12.59737406528321</v>
+        <v>1.428571428571427</v>
       </c>
       <c r="Q37">
-        <v>43.61502712280647</v>
+        <v>79.68818953041965</v>
       </c>
       <c r="R37">
-        <v>1.226415094339623</v>
+        <v>1.951072101043623</v>
       </c>
       <c r="S37">
-        <v>11.42857142857143</v>
-      </c>
-      <c r="T37">
-        <v>1.179401993355482</v>
+        <v>1.428571428571427</v>
       </c>
       <c r="U37">
-        <v>2.857142857142858</v>
-      </c>
-      <c r="V37">
-        <v>2.430703624733477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>98.73128165941556</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2304,43 +2304,43 @@
         <v>35</v>
       </c>
       <c r="F38">
-        <v>2.543171114599685</v>
+        <v>1.226415094339622</v>
       </c>
       <c r="G38">
-        <v>2.7157001414427</v>
-      </c>
-      <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.004243281471003</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L38">
-        <v>5.532570737227815</v>
+        <v>4.407417193838689</v>
       </c>
       <c r="M38">
-        <v>3.283582089552244</v>
-      </c>
-      <c r="N38">
-        <v>1.428571428571429</v>
+        <v>13.90142704639083</v>
       </c>
       <c r="P38">
-        <v>1.428571428571427</v>
+        <v>12.59737406528321</v>
       </c>
       <c r="Q38">
-        <v>79.68818953041965</v>
+        <v>43.61502712280647</v>
       </c>
       <c r="R38">
-        <v>1.951072101043623</v>
+        <v>1.226415094339623</v>
       </c>
       <c r="S38">
-        <v>1.428571428571427</v>
+        <v>11.42857142857143</v>
+      </c>
+      <c r="T38">
+        <v>1.179401993355482</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>2.857142857142858</v>
+      </c>
+      <c r="V38">
+        <v>2.430703624733477</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -2389,84 +2389,84 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>100</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
       <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>6.456270627062703</v>
+        <v>37.31118000289556</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>9.47694208307416</v>
       </c>
       <c r="L40">
-        <v>4.876373626373627</v>
+        <v>9.847351381858354</v>
       </c>
       <c r="M40">
-        <v>4.806105610561068</v>
+        <v>9.932922758587026</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>5.082417582417581</v>
       </c>
       <c r="Q40">
-        <v>83.8612501360026</v>
+        <v>14.93343527541641</v>
+      </c>
+      <c r="S40">
+        <v>10.41666666666667</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
       </c>
       <c r="X40">
         <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>2.99908424908425</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>24</v>
       </c>
       <c r="G41">
-        <v>37.31118000289556</v>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>6.456270627062703</v>
       </c>
       <c r="J41">
-        <v>9.47694208307416</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>9.847351381858354</v>
+        <v>4.876373626373627</v>
       </c>
       <c r="M41">
-        <v>9.932922758587026</v>
+        <v>4.806105610561068</v>
       </c>
       <c r="P41">
-        <v>5.082417582417581</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>14.93343527541641</v>
-      </c>
-      <c r="S41">
-        <v>10.41666666666667</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
+        <v>83.8612501360026</v>
       </c>
       <c r="X41">
         <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>2.99908424908425</v>
       </c>
     </row>
     <row r="42" spans="1:25">

--- a/data/clustered_fiber_composition.xlsx
+++ b/data/clustered_fiber_composition.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Lifetime (years)</t>
+    <t>Lifetime Min</t>
+  </si>
+  <si>
+    <t>Lifetime Max</t>
   </si>
   <si>
     <t>Count</t>
@@ -74,27 +77,6 @@
   </si>
   <si>
     <t>sweaters and cardigans</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.8-4.8</t>
-  </si>
-  <si>
-    <t>5.4-6.3</t>
-  </si>
-  <si>
-    <t>2.6-4.4</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.1-4.8</t>
-  </si>
-  <si>
-    <t>4.0-4.8</t>
   </si>
 </sst>
 </file>
@@ -452,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,384 +477,417 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>417</v>
+      </c>
+      <c r="E2">
+        <v>99.16119000378789</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>92.74679847928972</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5.203479066345877</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>3.8</v>
+      </c>
+      <c r="C3">
+        <v>4.8</v>
+      </c>
+      <c r="D3">
+        <v>327</v>
+      </c>
+      <c r="E3">
+        <v>96.95197383235323</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>90.40882454764856</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>6.543149284704662</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>5.4</v>
+      </c>
+      <c r="C4">
+        <v>6.3</v>
+      </c>
+      <c r="D4">
+        <v>279</v>
+      </c>
+      <c r="E4">
+        <v>97.38593552569994</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.80293604123461</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>93.46869450558034</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2.6</v>
+      </c>
+      <c r="C5">
+        <v>4.4</v>
+      </c>
+      <c r="D5">
+        <v>214</v>
+      </c>
+      <c r="E5">
+        <v>98.98980187796266</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>83.3636593636887</v>
+      </c>
+      <c r="H5">
+        <v>7.841908024975051</v>
+      </c>
+      <c r="I5">
+        <v>6.521083594214502</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4.3</v>
+      </c>
+      <c r="C6">
+        <v>4.3</v>
+      </c>
+      <c r="D6">
+        <v>211</v>
+      </c>
+      <c r="E6">
+        <v>96.99759704364095</v>
+      </c>
+      <c r="F6">
+        <v>2.931341883123352</v>
+      </c>
+      <c r="G6">
+        <v>2.183223091597702</v>
+      </c>
+      <c r="H6">
+        <v>1.983350874494592</v>
+      </c>
+      <c r="I6">
+        <v>89.8996811944253</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>4.1</v>
+      </c>
+      <c r="C7">
+        <v>4.8</v>
+      </c>
+      <c r="D7">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>98.40867335103351</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>95.4704045823251</v>
+      </c>
+      <c r="H7">
+        <v>1.365502921587108</v>
+      </c>
+      <c r="I7">
+        <v>1.5727658471213</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>2.6</v>
+      </c>
+      <c r="C8">
+        <v>4.4</v>
+      </c>
+      <c r="D8">
+        <v>183</v>
+      </c>
+      <c r="E8">
+        <v>99.27274070912466</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.091954434954962</v>
+      </c>
+      <c r="I8">
+        <v>91.40670000130483</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>4.3</v>
+      </c>
+      <c r="C9">
+        <v>4.3</v>
+      </c>
+      <c r="D9">
+        <v>179</v>
+      </c>
+      <c r="E9">
+        <v>96.68702910843113</v>
+      </c>
+      <c r="F9">
+        <v>19.79918347440404</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>17.71409060408422</v>
+      </c>
+      <c r="I9">
+        <v>4.681399911833243</v>
+      </c>
+      <c r="J9">
+        <v>10.24260008024936</v>
+      </c>
+      <c r="K9">
+        <v>1.82951931796937</v>
+      </c>
+      <c r="L9">
+        <v>31.60981355468845</v>
+      </c>
+      <c r="M9">
+        <v>4.932344392245491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>4.1</v>
+      </c>
+      <c r="C10">
+        <v>4.8</v>
+      </c>
+      <c r="D10">
+        <v>176</v>
+      </c>
+      <c r="E10">
+        <v>97.18917192635139</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.639495500910769</v>
+      </c>
+      <c r="H10">
+        <v>1.38096712470844</v>
+      </c>
+      <c r="I10">
+        <v>93.16870930073219</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>417</v>
-      </c>
-      <c r="D2">
-        <v>99.16119000378789</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>92.74679847928972</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>5.203479066345877</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>327</v>
-      </c>
-      <c r="D3">
-        <v>96.95197383235323</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>90.40882454764856</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>6.543149284704662</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>279</v>
-      </c>
-      <c r="D4">
-        <v>97.38593552569994</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2.80293604123461</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>93.46869450558034</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>214</v>
-      </c>
-      <c r="D5">
-        <v>98.98980187796266</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>83.3636593636887</v>
-      </c>
-      <c r="G5">
-        <v>7.841908024975051</v>
-      </c>
-      <c r="H5">
-        <v>6.521083594214502</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>211</v>
-      </c>
-      <c r="D6">
-        <v>96.99759704364095</v>
-      </c>
-      <c r="E6">
-        <v>2.931341883123352</v>
-      </c>
-      <c r="F6">
-        <v>2.183223091597702</v>
-      </c>
-      <c r="G6">
-        <v>1.983350874494592</v>
-      </c>
-      <c r="H6">
-        <v>89.8996811944253</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>196</v>
-      </c>
-      <c r="D7">
-        <v>98.40867335103351</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>95.4704045823251</v>
-      </c>
-      <c r="G7">
-        <v>1.365502921587108</v>
-      </c>
-      <c r="H7">
-        <v>1.5727658471213</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>183</v>
-      </c>
-      <c r="D8">
-        <v>99.27274070912466</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.091954434954962</v>
-      </c>
-      <c r="H8">
-        <v>91.40670000130483</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>179</v>
-      </c>
-      <c r="D9">
-        <v>96.68702910843113</v>
-      </c>
-      <c r="E9">
-        <v>19.79918347440404</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>17.71409060408422</v>
-      </c>
-      <c r="H9">
-        <v>4.681399911833243</v>
-      </c>
-      <c r="I9">
-        <v>10.24260008024936</v>
-      </c>
-      <c r="J9">
-        <v>1.82951931796937</v>
-      </c>
-      <c r="K9">
-        <v>31.60981355468845</v>
-      </c>
-      <c r="L9">
-        <v>4.932344392245491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>176</v>
-      </c>
-      <c r="D10">
-        <v>97.18917192635139</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2.639495500910769</v>
-      </c>
-      <c r="G10">
-        <v>1.38096712470844</v>
-      </c>
-      <c r="H10">
-        <v>93.16870930073219</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
+      <c r="B11">
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>4.8</v>
+      </c>
+      <c r="D11">
         <v>167</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>99.55266475043824</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>31.27963528097671</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.365301174128476</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20.91338720477637</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>13.4409427206975</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>13.45174857947317</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6.471989259624042</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>11.5998520159235</v>
       </c>
     </row>

--- a/data/clustered_fiber_composition.xlsx
+++ b/data/clustered_fiber_composition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Category</t>
   </si>
@@ -28,7 +28,10 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>Market share</t>
+  </si>
+  <si>
+    <t>Fibre composition sum</t>
   </si>
   <si>
     <t>Acrylic</t>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,10 +483,13 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -495,22 +501,22 @@
         <v>417</v>
       </c>
       <c r="E2">
-        <v>99.16119000378789</v>
+        <v>0.09276974416017797</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9916119000378789</v>
       </c>
       <c r="G2">
-        <v>92.74679847928972</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9274679847928973</v>
       </c>
       <c r="I2">
-        <v>5.203479066345877</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05203479066345877</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -521,10 +527,13 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>3.8</v>
@@ -536,22 +545,22 @@
         <v>327</v>
       </c>
       <c r="E3">
-        <v>96.95197383235323</v>
+        <v>0.07274749721913237</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.9695197383235322</v>
       </c>
       <c r="G3">
-        <v>90.40882454764856</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9040882454764856</v>
       </c>
       <c r="I3">
-        <v>6.543149284704662</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06543149284704662</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -562,10 +571,13 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>5.4</v>
@@ -577,22 +589,22 @@
         <v>279</v>
       </c>
       <c r="E4">
-        <v>97.38593552569994</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.9738593552569994</v>
       </c>
       <c r="G4">
-        <v>2.80293604123461</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0280293604123461</v>
       </c>
       <c r="I4">
-        <v>93.46869450558034</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.9346869450558035</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -603,10 +615,13 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2.6</v>
@@ -618,22 +633,22 @@
         <v>214</v>
       </c>
       <c r="E5">
-        <v>98.98980187796266</v>
+        <v>0.04760845383759733</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.9898980187796266</v>
       </c>
       <c r="G5">
-        <v>83.3636593636887</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.841908024975051</v>
+        <v>0.8336365936368869</v>
       </c>
       <c r="I5">
-        <v>6.521083594214502</v>
+        <v>0.07841908024975051</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06521083594214502</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -644,10 +659,13 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4.3</v>
@@ -659,22 +677,22 @@
         <v>211</v>
       </c>
       <c r="E6">
-        <v>96.99759704364095</v>
+        <v>0.04694104560622914</v>
       </c>
       <c r="F6">
-        <v>2.931341883123352</v>
+        <v>0.9699759704364095</v>
       </c>
       <c r="G6">
-        <v>2.183223091597702</v>
+        <v>0.02931341883123352</v>
       </c>
       <c r="H6">
-        <v>1.983350874494592</v>
+        <v>0.02183223091597702</v>
       </c>
       <c r="I6">
-        <v>89.8996811944253</v>
+        <v>0.01983350874494592</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.898996811944253</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -685,10 +703,13 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>4.1</v>
@@ -700,22 +721,22 @@
         <v>196</v>
       </c>
       <c r="E7">
-        <v>98.40867335103351</v>
+        <v>0.04360400444938821</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.9840867335103352</v>
       </c>
       <c r="G7">
-        <v>95.4704045823251</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.365502921587108</v>
+        <v>0.9547040458232511</v>
       </c>
       <c r="I7">
-        <v>1.5727658471213</v>
+        <v>0.01365502921587108</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.015727658471213</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -726,10 +747,13 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>2.6</v>
@@ -741,22 +765,22 @@
         <v>183</v>
       </c>
       <c r="E8">
-        <v>99.27274070912466</v>
+        <v>0.0407119021134594</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.9927274070912466</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.091954434954962</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>91.40670000130483</v>
+        <v>0.01091954434954962</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9140670000130483</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -767,10 +791,13 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>4.3</v>
@@ -782,36 +809,39 @@
         <v>179</v>
       </c>
       <c r="E9">
-        <v>96.68702910843113</v>
+        <v>0.03982202447163515</v>
       </c>
       <c r="F9">
-        <v>19.79918347440404</v>
+        <v>0.9668702910843114</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1979918347440404</v>
       </c>
       <c r="H9">
-        <v>17.71409060408422</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.681399911833243</v>
+        <v>0.1771409060408422</v>
       </c>
       <c r="J9">
-        <v>10.24260008024936</v>
+        <v>0.04681399911833243</v>
       </c>
       <c r="K9">
-        <v>1.82951931796937</v>
+        <v>0.1024260008024936</v>
       </c>
       <c r="L9">
-        <v>31.60981355468845</v>
+        <v>0.0182951931796937</v>
       </c>
       <c r="M9">
-        <v>4.932344392245491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.3160981355468845</v>
+      </c>
+      <c r="N9">
+        <v>0.04932344392245491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>4.1</v>
@@ -823,22 +853,22 @@
         <v>176</v>
       </c>
       <c r="E10">
-        <v>97.18917192635139</v>
+        <v>0.03915461624026696</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.9718917192635139</v>
       </c>
       <c r="G10">
-        <v>2.639495500910769</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1.38096712470844</v>
+        <v>0.02639495500910768</v>
       </c>
       <c r="I10">
-        <v>93.16870930073219</v>
+        <v>0.0138096712470844</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9316870930073219</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -849,10 +879,13 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -864,31 +897,34 @@
         <v>167</v>
       </c>
       <c r="E11">
-        <v>99.55266475043824</v>
+        <v>0.0371523915461624</v>
       </c>
       <c r="F11">
-        <v>31.27963528097671</v>
+        <v>0.9955266475043822</v>
       </c>
       <c r="G11">
-        <v>1.365301174128476</v>
+        <v>0.3127963528097671</v>
       </c>
       <c r="H11">
-        <v>20.91338720477637</v>
+        <v>0.01365301174128476</v>
       </c>
       <c r="I11">
-        <v>13.4409427206975</v>
+        <v>0.2091338720477637</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.134409427206975</v>
       </c>
       <c r="K11">
-        <v>13.45174857947317</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.471989259624042</v>
+        <v>0.1345174857947317</v>
       </c>
       <c r="M11">
-        <v>11.5998520159235</v>
+        <v>0.06471989259624042</v>
+      </c>
+      <c r="N11">
+        <v>0.115998520159235</v>
       </c>
     </row>
   </sheetData>

--- a/data/clustered_fiber_composition.xlsx
+++ b/data/clustered_fiber_composition.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+  <si>
+    <t>Clothing type</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Category share</t>
+  </si>
+  <si>
+    <t>Market share</t>
+  </si>
+  <si>
     <t>Lifetime Min</t>
   </si>
   <si>
@@ -28,9 +37,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Market share</t>
-  </si>
-  <si>
     <t>Fibre composition sum</t>
   </si>
   <si>
@@ -56,6 +62,39 @@
   </si>
   <si>
     <t>Animal hair (alpaca, llama, camel, kashmir goat, angora goat, angora rabbit)</t>
+  </si>
+  <si>
+    <t>Categroy share</t>
+  </si>
+  <si>
+    <t>t-shirts</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>overcoats</t>
+  </si>
+  <si>
+    <t>underwear</t>
+  </si>
+  <si>
+    <t>handkerchiefs_1</t>
+  </si>
+  <si>
+    <t>shirts_1</t>
+  </si>
+  <si>
+    <t>sportswear</t>
+  </si>
+  <si>
+    <t>handkerchiefs_2</t>
+  </si>
+  <si>
+    <t>shirts_2</t>
+  </si>
+  <si>
+    <t>sweaters</t>
   </si>
   <si>
     <t>t-shirts, singlets and vests, hoodies and crewnecks</t>
@@ -437,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,445 +525,577 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0.7189655172413794</v>
+      </c>
+      <c r="D2">
+        <v>0.09276974416017797</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>417</v>
       </c>
-      <c r="E2">
-        <v>0.09276974416017797</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.9916119000378789</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>0.9274679847928973</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0.05203479066345877</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7189655172413794</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>0.5505050505050505</v>
+      </c>
+      <c r="D3">
+        <v>0.07274749721913237</v>
+      </c>
+      <c r="E3">
         <v>3.8</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>4.8</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>327</v>
       </c>
-      <c r="E3">
-        <v>0.07274749721913237</v>
-      </c>
-      <c r="F3">
-        <v>0.9695197383235322</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>0.9040882454764856</v>
+        <v>0.9695197383235323</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0.9040882454764857</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.06543149284704662</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.5505050505050505</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.5072727272727273</v>
+      </c>
+      <c r="D4">
+        <v>0.06206896551724138</v>
+      </c>
+      <c r="E4">
         <v>5.4</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>6.3</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>279</v>
       </c>
-      <c r="E4">
-        <v>0.06206896551724138</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.9738593552569994</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0.0280293604123461</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0.9346869450558035</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5072727272727273</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.4467640918580376</v>
+      </c>
+      <c r="D5">
+        <v>0.04760845383759733</v>
+      </c>
+      <c r="E5">
         <v>2.6</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>4.4</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>214</v>
       </c>
-      <c r="E5">
-        <v>0.04760845383759733</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.9898980187796266</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0.8336365936368869</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.07841908024975051</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.06521083594214502</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.4467640918580376</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0.4178217821782178</v>
+      </c>
+      <c r="D6">
+        <v>0.04694104560622914</v>
+      </c>
+      <c r="E6">
         <v>4.3</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>4.3</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>211</v>
       </c>
-      <c r="E6">
-        <v>0.04694104560622914</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.9699759704364095</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.02931341883123352</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.02183223091597702</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.01983350874494592</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.898996811944253</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.4178217821782178</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.3881188118811881</v>
+      </c>
+      <c r="D7">
+        <v>0.04360400444938821</v>
+      </c>
+      <c r="E7">
         <v>4.1</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>4.8</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>196</v>
       </c>
-      <c r="E7">
-        <v>0.04360400444938821</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9840867335103352</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0.9547040458232511</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.01365502921587108</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.015727658471213</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.3881188118811881</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0.5941558441558441</v>
+      </c>
+      <c r="D8">
+        <v>0.0407119021134594</v>
+      </c>
+      <c r="E8">
         <v>2.6</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>4.4</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>183</v>
       </c>
-      <c r="E8">
-        <v>0.0407119021134594</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.9927274070912466</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.01091954434954962</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.9140670000130483</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5941558441558441</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0.3544554455445544</v>
+      </c>
+      <c r="D9">
+        <v>0.03982202447163515</v>
+      </c>
+      <c r="E9">
         <v>4.3</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>4.3</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>179</v>
       </c>
-      <c r="E9">
-        <v>0.03982202447163515</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.9668702910843114</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.1979918347440404</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.1771409060408422</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.04681399911833243</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.1024260008024936</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.0182951931796937</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.3160981355468845</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.04932344392245491</v>
       </c>
+      <c r="Q9">
+        <v>0.3544554455445544</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>0.3485148514851485</v>
+      </c>
+      <c r="D10">
+        <v>0.03915461624026696</v>
+      </c>
+      <c r="E10">
         <v>4.1</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>4.8</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>176</v>
       </c>
-      <c r="E10">
-        <v>0.03915461624026696</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.9718917192635139</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0.02639495500910768</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.0138096712470844</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.9316870930073219</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.3485148514851485</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>0.3576017130620985</v>
+      </c>
+      <c r="D11">
+        <v>0.0371523915461624</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>4.8</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>167</v>
       </c>
-      <c r="E11">
-        <v>0.0371523915461624</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.9955266475043822</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.3127963528097671</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.01365301174128476</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.2091338720477637</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.134409427206975</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>0.1345174857947317</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.06471989259624042</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.115998520159235</v>
+      </c>
+      <c r="Q11">
+        <v>0.3576017130620985</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
